--- a/_site/Data/VaccineChildrenCC.xlsx
+++ b/_site/Data/VaccineChildrenCC.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhoe9Wzg7AASGxSDTjpKWK8VI7W4A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi6QX+BEVBm7ZSkqP6NKLwyOTb35w=="/>
     </ext>
   </extLst>
 </workbook>
@@ -133,7 +133,7 @@
     <t>How do you feel about the COVID-19 vaccine in terms of its safety and effectiveness for children under the age of 5?</t>
   </si>
   <si>
-    <t>[Free response]</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t xml:space="preserve">• In a few weeks, I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated 
@@ -877,7 +877,7 @@
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="1"/>
